--- a/database/industries/siman/save/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/siman/save/income/quarterly/rial_cumulative.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\save\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31F1029-7080-4BB5-9E57-6F211A6B5B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -154,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -335,7 +334,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -347,7 +346,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -394,23 +393,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -446,23 +428,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -614,7 +579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/siman/save/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/siman/save/income/quarterly/rial_cumulative.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\save\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAD5A29-540F-47C1-8E03-E9F3F43E0E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -36,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>6 ماهه منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>9 ماهه منتهی به 1399/09</t>
   </si>
   <si>
@@ -66,12 +64,12 @@
     <t>9 ماهه منتهی به 1401/09</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-08-29 (4)</t>
-  </si>
-  <si>
     <t>1400-11-02 (2)</t>
   </si>
   <si>
@@ -87,7 +85,7 @@
     <t>1401-11-19 (3)</t>
   </si>
   <si>
-    <t>1401-11-19 (9)</t>
+    <t>1402-02-27 (12)</t>
   </si>
   <si>
     <t>1401-05-01</t>
@@ -97,6 +95,9 @@
   </si>
   <si>
     <t>1401-11-19 (2)</t>
+  </si>
+  <si>
+    <t>1402-02-27 (3)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -153,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -334,7 +335,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -346,7 +347,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -393,6 +394,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -428,6 +446,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -579,23 +614,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="13" width="28" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="12" width="28" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -609,7 +645,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -625,7 +661,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -641,7 +677,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -655,7 +691,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -671,7 +707,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -687,7 +723,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -701,7 +737,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -737,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -773,7 +809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -787,151 +823,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>3030728</v>
+        <v>5221154</v>
       </c>
       <c r="E11" s="13">
-        <v>5221154</v>
+        <v>7208698</v>
       </c>
       <c r="F11" s="13">
-        <v>7208698</v>
+        <v>2671724</v>
       </c>
       <c r="G11" s="13">
-        <v>2671724</v>
+        <v>5247215</v>
       </c>
       <c r="H11" s="13">
-        <v>5247215</v>
+        <v>8337744</v>
       </c>
       <c r="I11" s="13">
-        <v>8337744</v>
+        <v>11351159</v>
       </c>
       <c r="J11" s="13">
-        <v>11351159</v>
+        <v>3415613</v>
       </c>
       <c r="K11" s="13">
-        <v>3415613</v>
+        <v>8137518</v>
       </c>
       <c r="L11" s="13">
-        <v>8137518</v>
+        <v>14466444</v>
       </c>
       <c r="M11" s="13">
-        <v>14466444</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>21157343</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-1329882</v>
+        <v>-2160275</v>
       </c>
       <c r="E12" s="11">
-        <v>-2160275</v>
+        <v>-2952358</v>
       </c>
       <c r="F12" s="11">
-        <v>-2952358</v>
+        <v>-1072057</v>
       </c>
       <c r="G12" s="11">
-        <v>-1072057</v>
+        <v>-2148798</v>
       </c>
       <c r="H12" s="11">
-        <v>-2148798</v>
+        <v>-3472438</v>
       </c>
       <c r="I12" s="11">
-        <v>-3472438</v>
+        <v>-5199910</v>
       </c>
       <c r="J12" s="11">
-        <v>-5199910</v>
+        <v>-1558599</v>
       </c>
       <c r="K12" s="11">
-        <v>-1558599</v>
+        <v>-3286903</v>
       </c>
       <c r="L12" s="11">
-        <v>-3286903</v>
+        <v>-5732946</v>
       </c>
       <c r="M12" s="11">
-        <v>-5732946</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-8863829</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>1700846</v>
+        <v>3060879</v>
       </c>
       <c r="E13" s="15">
-        <v>3060879</v>
+        <v>4256340</v>
       </c>
       <c r="F13" s="15">
-        <v>4256340</v>
+        <v>1599667</v>
       </c>
       <c r="G13" s="15">
-        <v>1599667</v>
+        <v>3098417</v>
       </c>
       <c r="H13" s="15">
-        <v>3098417</v>
+        <v>4865306</v>
       </c>
       <c r="I13" s="15">
-        <v>4865306</v>
+        <v>6151249</v>
       </c>
       <c r="J13" s="15">
-        <v>6151249</v>
+        <v>1857014</v>
       </c>
       <c r="K13" s="15">
-        <v>1857014</v>
+        <v>4850615</v>
       </c>
       <c r="L13" s="15">
-        <v>4850615</v>
+        <v>8733498</v>
       </c>
       <c r="M13" s="15">
-        <v>8733498</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>12293514</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-235114</v>
+        <v>-455415</v>
       </c>
       <c r="E14" s="11">
-        <v>-455415</v>
+        <v>-888297</v>
       </c>
       <c r="F14" s="11">
-        <v>-888297</v>
+        <v>-290181</v>
       </c>
       <c r="G14" s="11">
-        <v>-290181</v>
+        <v>-480225</v>
       </c>
       <c r="H14" s="11">
-        <v>-480225</v>
+        <v>-574301</v>
       </c>
       <c r="I14" s="11">
-        <v>-574301</v>
+        <v>-732994</v>
       </c>
       <c r="J14" s="11">
-        <v>-732994</v>
+        <v>-147803</v>
       </c>
       <c r="K14" s="11">
-        <v>-147803</v>
+        <v>-335535</v>
       </c>
       <c r="L14" s="11">
-        <v>-335535</v>
+        <v>-1044975</v>
       </c>
       <c r="M14" s="11">
-        <v>-1044975</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1806898</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -967,259 +1003,259 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>123772</v>
+        <v>185652</v>
       </c>
       <c r="E16" s="11">
-        <v>185652</v>
+        <v>159893</v>
       </c>
       <c r="F16" s="11">
-        <v>159893</v>
+        <v>-1761</v>
       </c>
       <c r="G16" s="11">
-        <v>-1761</v>
+        <v>-47836</v>
       </c>
       <c r="H16" s="11">
-        <v>-47836</v>
+        <v>440</v>
       </c>
       <c r="I16" s="11">
-        <v>440</v>
+        <v>-27547</v>
       </c>
       <c r="J16" s="11">
-        <v>-27547</v>
+        <v>1810</v>
       </c>
       <c r="K16" s="11">
-        <v>1810</v>
+        <v>-340</v>
       </c>
       <c r="L16" s="11">
-        <v>-340</v>
+        <v>84313</v>
       </c>
       <c r="M16" s="11">
-        <v>84313</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>379865</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>1589504</v>
+        <v>2791116</v>
       </c>
       <c r="E17" s="15">
-        <v>2791116</v>
+        <v>3527936</v>
       </c>
       <c r="F17" s="15">
-        <v>3527936</v>
+        <v>1307725</v>
       </c>
       <c r="G17" s="15">
-        <v>1307725</v>
+        <v>2570356</v>
       </c>
       <c r="H17" s="15">
-        <v>2570356</v>
+        <v>4291445</v>
       </c>
       <c r="I17" s="15">
-        <v>4291445</v>
+        <v>5390708</v>
       </c>
       <c r="J17" s="15">
-        <v>5390708</v>
+        <v>1711021</v>
       </c>
       <c r="K17" s="15">
-        <v>1711021</v>
+        <v>4514740</v>
       </c>
       <c r="L17" s="15">
-        <v>4514740</v>
+        <v>7772836</v>
       </c>
       <c r="M17" s="15">
-        <v>7772836</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>10866481</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-20793</v>
+        <v>-33597</v>
       </c>
       <c r="E18" s="11">
-        <v>-33597</v>
+        <v>-43009</v>
       </c>
       <c r="F18" s="11">
-        <v>-43009</v>
+        <v>-13454</v>
       </c>
       <c r="G18" s="11">
-        <v>-13454</v>
+        <v>-25549</v>
       </c>
       <c r="H18" s="11">
-        <v>-25549</v>
+        <v>-38391</v>
       </c>
       <c r="I18" s="11">
-        <v>-38391</v>
+        <v>-48568</v>
       </c>
       <c r="J18" s="11">
-        <v>-48568</v>
+        <v>-14861</v>
       </c>
       <c r="K18" s="11">
-        <v>-14861</v>
+        <v>-28071</v>
       </c>
       <c r="L18" s="11">
-        <v>-28071</v>
+        <v>-42259</v>
       </c>
       <c r="M18" s="11">
-        <v>-42259</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-55460</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>104616</v>
+        <v>254846</v>
       </c>
       <c r="E19" s="13">
-        <v>254846</v>
+        <v>275300</v>
       </c>
       <c r="F19" s="13">
-        <v>275300</v>
+        <v>105926</v>
       </c>
       <c r="G19" s="13">
-        <v>105926</v>
+        <v>171502</v>
       </c>
       <c r="H19" s="13">
-        <v>171502</v>
+        <v>347929</v>
       </c>
       <c r="I19" s="13">
-        <v>347929</v>
+        <v>454231</v>
       </c>
       <c r="J19" s="13">
-        <v>454231</v>
+        <v>250879</v>
       </c>
       <c r="K19" s="13">
-        <v>250879</v>
+        <v>497274</v>
       </c>
       <c r="L19" s="13">
-        <v>497274</v>
+        <v>783487</v>
       </c>
       <c r="M19" s="13">
-        <v>783487</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1250178</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>1673327</v>
+        <v>3012365</v>
       </c>
       <c r="E20" s="17">
-        <v>3012365</v>
+        <v>3760227</v>
       </c>
       <c r="F20" s="17">
-        <v>3760227</v>
+        <v>1400197</v>
       </c>
       <c r="G20" s="17">
-        <v>1400197</v>
+        <v>2716309</v>
       </c>
       <c r="H20" s="17">
-        <v>2716309</v>
+        <v>4600983</v>
       </c>
       <c r="I20" s="17">
-        <v>4600983</v>
+        <v>5796371</v>
       </c>
       <c r="J20" s="17">
-        <v>5796371</v>
+        <v>1947039</v>
       </c>
       <c r="K20" s="17">
-        <v>1947039</v>
+        <v>4983943</v>
       </c>
       <c r="L20" s="17">
-        <v>4983943</v>
+        <v>8514064</v>
       </c>
       <c r="M20" s="17">
-        <v>8514064</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>12061199</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-224829</v>
+        <v>-418593</v>
       </c>
       <c r="E21" s="13">
-        <v>-418593</v>
+        <v>-396742</v>
       </c>
       <c r="F21" s="13">
-        <v>-396742</v>
+        <v>-99622</v>
       </c>
       <c r="G21" s="13">
-        <v>-99622</v>
+        <v>-461878</v>
       </c>
       <c r="H21" s="13">
-        <v>-461878</v>
+        <v>-525650</v>
       </c>
       <c r="I21" s="13">
-        <v>-525650</v>
+        <v>-689705</v>
       </c>
       <c r="J21" s="13">
-        <v>-689705</v>
+        <v>-252155</v>
       </c>
       <c r="K21" s="13">
-        <v>-252155</v>
+        <v>-922094</v>
       </c>
       <c r="L21" s="13">
-        <v>-922094</v>
+        <v>-1376328</v>
       </c>
       <c r="M21" s="13">
-        <v>-1376328</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1766521</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>1448498</v>
+        <v>2593772</v>
       </c>
       <c r="E22" s="17">
-        <v>2593772</v>
+        <v>3363485</v>
       </c>
       <c r="F22" s="17">
-        <v>3363485</v>
+        <v>1300575</v>
       </c>
       <c r="G22" s="17">
-        <v>1300575</v>
+        <v>2254431</v>
       </c>
       <c r="H22" s="17">
-        <v>2254431</v>
+        <v>4075333</v>
       </c>
       <c r="I22" s="17">
-        <v>4075333</v>
+        <v>5106666</v>
       </c>
       <c r="J22" s="17">
-        <v>5106666</v>
+        <v>1694884</v>
       </c>
       <c r="K22" s="17">
-        <v>1694884</v>
+        <v>4061849</v>
       </c>
       <c r="L22" s="17">
-        <v>4061849</v>
+        <v>7137736</v>
       </c>
       <c r="M22" s="17">
-        <v>7137736</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>10294678</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1255,79 +1291,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>1448498</v>
+        <v>2593772</v>
       </c>
       <c r="E24" s="17">
-        <v>2593772</v>
+        <v>3363485</v>
       </c>
       <c r="F24" s="17">
-        <v>3363485</v>
+        <v>1300575</v>
       </c>
       <c r="G24" s="17">
-        <v>1300575</v>
+        <v>2254431</v>
       </c>
       <c r="H24" s="17">
-        <v>2254431</v>
+        <v>4075333</v>
       </c>
       <c r="I24" s="17">
-        <v>4075333</v>
+        <v>5106666</v>
       </c>
       <c r="J24" s="17">
-        <v>5106666</v>
+        <v>1694884</v>
       </c>
       <c r="K24" s="17">
-        <v>1694884</v>
+        <v>4061849</v>
       </c>
       <c r="L24" s="17">
-        <v>4061849</v>
+        <v>7137736</v>
       </c>
       <c r="M24" s="17">
-        <v>7137736</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>10294678</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>2228</v>
+        <v>3990</v>
       </c>
       <c r="E25" s="13">
-        <v>3990</v>
+        <v>5175</v>
       </c>
       <c r="F25" s="13">
-        <v>5175</v>
+        <v>2001</v>
       </c>
       <c r="G25" s="13">
-        <v>2001</v>
+        <v>3468</v>
       </c>
       <c r="H25" s="13">
-        <v>3468</v>
+        <v>6270</v>
       </c>
       <c r="I25" s="13">
-        <v>6270</v>
+        <v>7856</v>
       </c>
       <c r="J25" s="13">
-        <v>7856</v>
+        <v>2608</v>
       </c>
       <c r="K25" s="13">
-        <v>2608</v>
+        <v>6249</v>
       </c>
       <c r="L25" s="13">
-        <v>6249</v>
+        <v>10981</v>
       </c>
       <c r="M25" s="13">
-        <v>10981</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>15838</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1363,43 +1399,43 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>2228</v>
+        <v>3990</v>
       </c>
       <c r="E27" s="13">
-        <v>3990</v>
+        <v>5175</v>
       </c>
       <c r="F27" s="13">
-        <v>5175</v>
+        <v>2001</v>
       </c>
       <c r="G27" s="13">
-        <v>2001</v>
+        <v>3468</v>
       </c>
       <c r="H27" s="13">
-        <v>3468</v>
+        <v>6270</v>
       </c>
       <c r="I27" s="13">
-        <v>6270</v>
+        <v>7856</v>
       </c>
       <c r="J27" s="13">
-        <v>7856</v>
+        <v>2608</v>
       </c>
       <c r="K27" s="13">
-        <v>2608</v>
+        <v>6249</v>
       </c>
       <c r="L27" s="13">
-        <v>6249</v>
+        <v>10981</v>
       </c>
       <c r="M27" s="13">
-        <v>10981</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>15838</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/siman/save/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/siman/save/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\save\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\siman\save\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAD5A29-540F-47C1-8E03-E9F3F43E0E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A06EC49-99EA-4E18-B7F6-B28E543CE33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3384" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,30 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>9 ماهه منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>12 ماهه منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>3 ماهه منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>6 ماهه منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>9 ماهه منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>12 ماهه منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>3 ماهه منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>6 ماهه منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>9 ماهه منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,9 +91,39 @@
     <t>12 ماهه منتهی به 1401/12</t>
   </si>
   <si>
+    <t>3 ماهه منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>6 ماهه منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1398-12-11 (2)</t>
+  </si>
+  <si>
+    <t>1399-02-15 (10)</t>
+  </si>
+  <si>
+    <t>1399-04-27</t>
+  </si>
+  <si>
+    <t>1399-09-05 (4)</t>
+  </si>
+  <si>
+    <t>1399-10-30 (3)</t>
+  </si>
+  <si>
+    <t>1400-02-19 (11)</t>
+  </si>
+  <si>
+    <t>1400-05-20 (3)</t>
+  </si>
+  <si>
+    <t>1400-08-29 (4)</t>
+  </si>
+  <si>
     <t>1400-11-02 (2)</t>
   </si>
   <si>
@@ -88,16 +142,22 @@
     <t>1402-02-27 (12)</t>
   </si>
   <si>
-    <t>1401-05-01</t>
-  </si>
-  <si>
-    <t>1401-08-30 (2)</t>
+    <t>1402-04-31 (2)</t>
+  </si>
+  <si>
+    <t>1402-07-30 (3)</t>
   </si>
   <si>
     <t>1401-11-19 (2)</t>
   </si>
   <si>
-    <t>1402-02-27 (3)</t>
+    <t>1402-07-30 (5)</t>
+  </si>
+  <si>
+    <t>1402-04-31</t>
+  </si>
+  <si>
+    <t>1402-07-30</t>
   </si>
   <si>
     <t>فروش</t>
@@ -127,7 +187,7 @@
     <t>خالص سایر درامدها و هزینه های غیرعملیاتی</t>
   </si>
   <si>
-    <t>سود (زیان) خالص عملیات در حال تداوم قبل از مالیات</t>
+    <t>سود (زیان) عملیات در حال تداوم قبل از مالیات</t>
   </si>
   <si>
     <t>مالیات</t>
@@ -615,13 +675,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
@@ -629,9 +689,14 @@
     <col min="9" max="9" width="29" customWidth="1"/>
     <col min="10" max="12" width="28" customWidth="1"/>
     <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="14" max="16" width="28" customWidth="1"/>
+    <col min="17" max="17" width="29" customWidth="1"/>
+    <col min="18" max="20" width="28" customWidth="1"/>
+    <col min="21" max="21" width="29" customWidth="1"/>
+    <col min="22" max="23" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,8 +709,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,8 +735,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,8 +761,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,8 +785,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,8 +811,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,8 +837,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,8 +861,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -772,44 +907,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -822,154 +1017,284 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>1722463</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2213364</v>
+      </c>
+      <c r="F11" s="13">
+        <v>858999</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1775067</v>
+      </c>
+      <c r="H11" s="13">
+        <v>2757809</v>
+      </c>
+      <c r="I11" s="13">
+        <v>3917739</v>
+      </c>
+      <c r="J11" s="13">
+        <v>1499609</v>
+      </c>
+      <c r="K11" s="13">
+        <v>3030728</v>
+      </c>
+      <c r="L11" s="13">
         <v>5221154</v>
       </c>
-      <c r="E11" s="13">
+      <c r="M11" s="13">
         <v>7208698</v>
       </c>
-      <c r="F11" s="13">
+      <c r="N11" s="13">
         <v>2671724</v>
       </c>
-      <c r="G11" s="13">
+      <c r="O11" s="13">
         <v>5247215</v>
       </c>
-      <c r="H11" s="13">
+      <c r="P11" s="13">
         <v>8337744</v>
       </c>
-      <c r="I11" s="13">
+      <c r="Q11" s="13">
         <v>11351159</v>
       </c>
-      <c r="J11" s="13">
+      <c r="R11" s="13">
         <v>3415613</v>
       </c>
-      <c r="K11" s="13">
+      <c r="S11" s="13">
         <v>8137518</v>
       </c>
-      <c r="L11" s="13">
+      <c r="T11" s="13">
         <v>14466444</v>
       </c>
-      <c r="M11" s="13">
+      <c r="U11" s="13">
         <v>21157343</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V11" s="13">
+        <v>7601079</v>
+      </c>
+      <c r="W11" s="13">
+        <v>15282920</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-960109</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-1344912</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-448112</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-955748</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-1394513</v>
+      </c>
+      <c r="I12" s="11">
+        <v>-1959861</v>
+      </c>
+      <c r="J12" s="11">
+        <v>-641122</v>
+      </c>
+      <c r="K12" s="11">
+        <v>-1329882</v>
+      </c>
+      <c r="L12" s="11">
         <v>-2160275</v>
       </c>
-      <c r="E12" s="11">
+      <c r="M12" s="11">
         <v>-2952358</v>
       </c>
-      <c r="F12" s="11">
+      <c r="N12" s="11">
         <v>-1072057</v>
       </c>
-      <c r="G12" s="11">
+      <c r="O12" s="11">
         <v>-2148798</v>
       </c>
-      <c r="H12" s="11">
+      <c r="P12" s="11">
         <v>-3472438</v>
       </c>
-      <c r="I12" s="11">
+      <c r="Q12" s="11">
         <v>-5199910</v>
       </c>
-      <c r="J12" s="11">
+      <c r="R12" s="11">
         <v>-1558599</v>
       </c>
-      <c r="K12" s="11">
+      <c r="S12" s="11">
         <v>-3286903</v>
       </c>
-      <c r="L12" s="11">
+      <c r="T12" s="11">
         <v>-5732946</v>
       </c>
-      <c r="M12" s="11">
+      <c r="U12" s="11">
         <v>-8863829</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V12" s="11">
+        <v>-2666049</v>
+      </c>
+      <c r="W12" s="11">
+        <v>-5733747</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>762354</v>
+      </c>
+      <c r="E13" s="15">
+        <v>868452</v>
+      </c>
+      <c r="F13" s="15">
+        <v>410887</v>
+      </c>
+      <c r="G13" s="15">
+        <v>819319</v>
+      </c>
+      <c r="H13" s="15">
+        <v>1363296</v>
+      </c>
+      <c r="I13" s="15">
+        <v>1957878</v>
+      </c>
+      <c r="J13" s="15">
+        <v>858487</v>
+      </c>
+      <c r="K13" s="15">
+        <v>1700846</v>
+      </c>
+      <c r="L13" s="15">
         <v>3060879</v>
       </c>
-      <c r="E13" s="15">
+      <c r="M13" s="15">
         <v>4256340</v>
       </c>
-      <c r="F13" s="15">
+      <c r="N13" s="15">
         <v>1599667</v>
       </c>
-      <c r="G13" s="15">
+      <c r="O13" s="15">
         <v>3098417</v>
       </c>
-      <c r="H13" s="15">
+      <c r="P13" s="15">
         <v>4865306</v>
       </c>
-      <c r="I13" s="15">
+      <c r="Q13" s="15">
         <v>6151249</v>
       </c>
-      <c r="J13" s="15">
+      <c r="R13" s="15">
         <v>1857014</v>
       </c>
-      <c r="K13" s="15">
+      <c r="S13" s="15">
         <v>4850615</v>
       </c>
-      <c r="L13" s="15">
+      <c r="T13" s="15">
         <v>8733498</v>
       </c>
-      <c r="M13" s="15">
+      <c r="U13" s="15">
         <v>12293514</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V13" s="15">
+        <v>4935030</v>
+      </c>
+      <c r="W13" s="15">
+        <v>9549173</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-62672</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-101106</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-96619</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-125188</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-153796</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-323609</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-161477</v>
+      </c>
+      <c r="K14" s="11">
+        <v>-235114</v>
+      </c>
+      <c r="L14" s="11">
         <v>-455415</v>
       </c>
-      <c r="E14" s="11">
+      <c r="M14" s="11">
         <v>-888297</v>
       </c>
-      <c r="F14" s="11">
+      <c r="N14" s="11">
         <v>-290181</v>
       </c>
-      <c r="G14" s="11">
+      <c r="O14" s="11">
         <v>-480225</v>
       </c>
-      <c r="H14" s="11">
+      <c r="P14" s="11">
         <v>-574301</v>
       </c>
-      <c r="I14" s="11">
+      <c r="Q14" s="11">
         <v>-732994</v>
       </c>
-      <c r="J14" s="11">
+      <c r="R14" s="11">
         <v>-147803</v>
       </c>
-      <c r="K14" s="11">
+      <c r="S14" s="11">
         <v>-335535</v>
       </c>
-      <c r="L14" s="11">
+      <c r="T14" s="11">
         <v>-1044975</v>
       </c>
-      <c r="M14" s="11">
+      <c r="U14" s="11">
         <v>-1806898</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V14" s="11">
+        <v>-608176</v>
+      </c>
+      <c r="W14" s="11">
+        <v>-993938</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -1002,262 +1327,502 @@
       <c r="M15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
+        <v>0</v>
+      </c>
+      <c r="W15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>12223</v>
+      </c>
+      <c r="E16" s="11">
+        <v>5429</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <v>56141</v>
+      </c>
+      <c r="H16" s="11">
+        <v>69717</v>
+      </c>
+      <c r="I16" s="11">
+        <v>88662</v>
+      </c>
+      <c r="J16" s="11">
+        <v>81360</v>
+      </c>
+      <c r="K16" s="11">
+        <v>123772</v>
+      </c>
+      <c r="L16" s="11">
         <v>185652</v>
       </c>
-      <c r="E16" s="11">
+      <c r="M16" s="11">
         <v>159893</v>
       </c>
-      <c r="F16" s="11">
+      <c r="N16" s="11">
         <v>-1761</v>
       </c>
-      <c r="G16" s="11">
+      <c r="O16" s="11">
         <v>-47836</v>
       </c>
-      <c r="H16" s="11">
+      <c r="P16" s="11">
         <v>440</v>
       </c>
-      <c r="I16" s="11">
+      <c r="Q16" s="11">
         <v>-27547</v>
       </c>
-      <c r="J16" s="11">
+      <c r="R16" s="11">
         <v>1810</v>
       </c>
-      <c r="K16" s="11">
+      <c r="S16" s="11">
         <v>-340</v>
       </c>
-      <c r="L16" s="11">
+      <c r="T16" s="11">
         <v>84313</v>
       </c>
-      <c r="M16" s="11">
+      <c r="U16" s="11">
         <v>379865</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V16" s="11">
+        <v>37845</v>
+      </c>
+      <c r="W16" s="11">
+        <v>36125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>711905</v>
+      </c>
+      <c r="E17" s="15">
+        <v>772775</v>
+      </c>
+      <c r="F17" s="15">
+        <v>314268</v>
+      </c>
+      <c r="G17" s="15">
+        <v>750272</v>
+      </c>
+      <c r="H17" s="15">
+        <v>1279217</v>
+      </c>
+      <c r="I17" s="15">
+        <v>1722931</v>
+      </c>
+      <c r="J17" s="15">
+        <v>778370</v>
+      </c>
+      <c r="K17" s="15">
+        <v>1589504</v>
+      </c>
+      <c r="L17" s="15">
         <v>2791116</v>
       </c>
-      <c r="E17" s="15">
+      <c r="M17" s="15">
         <v>3527936</v>
       </c>
-      <c r="F17" s="15">
+      <c r="N17" s="15">
         <v>1307725</v>
       </c>
-      <c r="G17" s="15">
+      <c r="O17" s="15">
         <v>2570356</v>
       </c>
-      <c r="H17" s="15">
+      <c r="P17" s="15">
         <v>4291445</v>
       </c>
-      <c r="I17" s="15">
+      <c r="Q17" s="15">
         <v>5390708</v>
       </c>
-      <c r="J17" s="15">
+      <c r="R17" s="15">
         <v>1711021</v>
       </c>
-      <c r="K17" s="15">
+      <c r="S17" s="15">
         <v>4514740</v>
       </c>
-      <c r="L17" s="15">
+      <c r="T17" s="15">
         <v>7772836</v>
       </c>
-      <c r="M17" s="15">
+      <c r="U17" s="15">
         <v>10866481</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V17" s="15">
+        <v>4364699</v>
+      </c>
+      <c r="W17" s="15">
+        <v>8591360</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-25637</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-36617</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-14423</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-23728</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-36229</v>
+      </c>
+      <c r="I18" s="11">
+        <v>-44400</v>
+      </c>
+      <c r="J18" s="11">
+        <v>-12018</v>
+      </c>
+      <c r="K18" s="11">
+        <v>-20793</v>
+      </c>
+      <c r="L18" s="11">
         <v>-33597</v>
       </c>
-      <c r="E18" s="11">
+      <c r="M18" s="11">
         <v>-43009</v>
       </c>
-      <c r="F18" s="11">
+      <c r="N18" s="11">
         <v>-13454</v>
       </c>
-      <c r="G18" s="11">
+      <c r="O18" s="11">
         <v>-25549</v>
       </c>
-      <c r="H18" s="11">
+      <c r="P18" s="11">
         <v>-38391</v>
       </c>
-      <c r="I18" s="11">
+      <c r="Q18" s="11">
         <v>-48568</v>
       </c>
-      <c r="J18" s="11">
+      <c r="R18" s="11">
         <v>-14861</v>
       </c>
-      <c r="K18" s="11">
+      <c r="S18" s="11">
         <v>-28071</v>
       </c>
-      <c r="L18" s="11">
+      <c r="T18" s="11">
         <v>-42259</v>
       </c>
-      <c r="M18" s="11">
+      <c r="U18" s="11">
         <v>-55460</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V18" s="11">
+        <v>-14833</v>
+      </c>
+      <c r="W18" s="11">
+        <v>-42374</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>80854</v>
+      </c>
+      <c r="E19" s="13">
+        <v>132976</v>
+      </c>
+      <c r="F19" s="13">
+        <v>30504</v>
+      </c>
+      <c r="G19" s="13">
+        <v>36287</v>
+      </c>
+      <c r="H19" s="13">
+        <v>55988</v>
+      </c>
+      <c r="I19" s="13">
+        <v>142288</v>
+      </c>
+      <c r="J19" s="13">
+        <v>54360</v>
+      </c>
+      <c r="K19" s="13">
+        <v>104616</v>
+      </c>
+      <c r="L19" s="13">
         <v>254846</v>
       </c>
-      <c r="E19" s="13">
+      <c r="M19" s="13">
         <v>275300</v>
       </c>
-      <c r="F19" s="13">
+      <c r="N19" s="13">
         <v>105926</v>
       </c>
-      <c r="G19" s="13">
+      <c r="O19" s="13">
         <v>171502</v>
       </c>
-      <c r="H19" s="13">
+      <c r="P19" s="13">
         <v>347929</v>
       </c>
-      <c r="I19" s="13">
+      <c r="Q19" s="13">
         <v>454231</v>
       </c>
-      <c r="J19" s="13">
+      <c r="R19" s="13">
         <v>250879</v>
       </c>
-      <c r="K19" s="13">
+      <c r="S19" s="13">
         <v>497274</v>
       </c>
-      <c r="L19" s="13">
+      <c r="T19" s="13">
         <v>783487</v>
       </c>
-      <c r="M19" s="13">
+      <c r="U19" s="13">
         <v>1250178</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V19" s="13">
+        <v>475298</v>
+      </c>
+      <c r="W19" s="13">
+        <v>848977</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>767122</v>
+      </c>
+      <c r="E20" s="17">
+        <v>869134</v>
+      </c>
+      <c r="F20" s="17">
+        <v>330349</v>
+      </c>
+      <c r="G20" s="17">
+        <v>762831</v>
+      </c>
+      <c r="H20" s="17">
+        <v>1298976</v>
+      </c>
+      <c r="I20" s="17">
+        <v>1820819</v>
+      </c>
+      <c r="J20" s="17">
+        <v>820712</v>
+      </c>
+      <c r="K20" s="17">
+        <v>1673327</v>
+      </c>
+      <c r="L20" s="17">
         <v>3012365</v>
       </c>
-      <c r="E20" s="17">
+      <c r="M20" s="17">
         <v>3760227</v>
       </c>
-      <c r="F20" s="17">
+      <c r="N20" s="17">
         <v>1400197</v>
       </c>
-      <c r="G20" s="17">
+      <c r="O20" s="17">
         <v>2716309</v>
       </c>
-      <c r="H20" s="17">
+      <c r="P20" s="17">
         <v>4600983</v>
       </c>
-      <c r="I20" s="17">
+      <c r="Q20" s="17">
         <v>5796371</v>
       </c>
-      <c r="J20" s="17">
+      <c r="R20" s="17">
         <v>1947039</v>
       </c>
-      <c r="K20" s="17">
+      <c r="S20" s="17">
         <v>4983943</v>
       </c>
-      <c r="L20" s="17">
+      <c r="T20" s="17">
         <v>8514064</v>
       </c>
-      <c r="M20" s="17">
+      <c r="U20" s="17">
         <v>12061199</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V20" s="17">
+        <v>4825164</v>
+      </c>
+      <c r="W20" s="17">
+        <v>9397963</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-163890</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-169425</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-50754</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-109416</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-253791</v>
+      </c>
+      <c r="I21" s="13">
+        <v>-307561</v>
+      </c>
+      <c r="J21" s="13">
+        <v>-95704</v>
+      </c>
+      <c r="K21" s="13">
+        <v>-224829</v>
+      </c>
+      <c r="L21" s="13">
         <v>-418593</v>
       </c>
-      <c r="E21" s="13">
+      <c r="M21" s="13">
         <v>-396742</v>
       </c>
-      <c r="F21" s="13">
+      <c r="N21" s="13">
         <v>-99622</v>
       </c>
-      <c r="G21" s="13">
+      <c r="O21" s="13">
         <v>-461878</v>
       </c>
-      <c r="H21" s="13">
+      <c r="P21" s="13">
         <v>-525650</v>
       </c>
-      <c r="I21" s="13">
+      <c r="Q21" s="13">
         <v>-689705</v>
       </c>
-      <c r="J21" s="13">
+      <c r="R21" s="13">
         <v>-252155</v>
       </c>
-      <c r="K21" s="13">
+      <c r="S21" s="13">
         <v>-922094</v>
       </c>
-      <c r="L21" s="13">
+      <c r="T21" s="13">
         <v>-1376328</v>
       </c>
-      <c r="M21" s="13">
+      <c r="U21" s="13">
         <v>-1766521</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V21" s="13">
+        <v>-755270</v>
+      </c>
+      <c r="W21" s="13">
+        <v>-1061721</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>603232</v>
+      </c>
+      <c r="E22" s="17">
+        <v>699709</v>
+      </c>
+      <c r="F22" s="17">
+        <v>279595</v>
+      </c>
+      <c r="G22" s="17">
+        <v>653415</v>
+      </c>
+      <c r="H22" s="17">
+        <v>1045185</v>
+      </c>
+      <c r="I22" s="17">
+        <v>1513258</v>
+      </c>
+      <c r="J22" s="17">
+        <v>725008</v>
+      </c>
+      <c r="K22" s="17">
+        <v>1448498</v>
+      </c>
+      <c r="L22" s="17">
         <v>2593772</v>
       </c>
-      <c r="E22" s="17">
+      <c r="M22" s="17">
         <v>3363485</v>
       </c>
-      <c r="F22" s="17">
+      <c r="N22" s="17">
         <v>1300575</v>
       </c>
-      <c r="G22" s="17">
+      <c r="O22" s="17">
         <v>2254431</v>
       </c>
-      <c r="H22" s="17">
+      <c r="P22" s="17">
         <v>4075333</v>
       </c>
-      <c r="I22" s="17">
+      <c r="Q22" s="17">
         <v>5106666</v>
       </c>
-      <c r="J22" s="17">
+      <c r="R22" s="17">
         <v>1694884</v>
       </c>
-      <c r="K22" s="17">
+      <c r="S22" s="17">
         <v>4061849</v>
       </c>
-      <c r="L22" s="17">
+      <c r="T22" s="17">
         <v>7137736</v>
       </c>
-      <c r="M22" s="17">
+      <c r="U22" s="17">
         <v>10294678</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V22" s="17">
+        <v>4069894</v>
+      </c>
+      <c r="W22" s="17">
+        <v>8336242</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1290,82 +1855,172 @@
       <c r="M23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="13">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0</v>
+      </c>
+      <c r="P23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>0</v>
+      </c>
+      <c r="R23" s="13">
+        <v>0</v>
+      </c>
+      <c r="S23" s="13">
+        <v>0</v>
+      </c>
+      <c r="T23" s="13">
+        <v>0</v>
+      </c>
+      <c r="U23" s="13">
+        <v>0</v>
+      </c>
+      <c r="V23" s="13">
+        <v>0</v>
+      </c>
+      <c r="W23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>603232</v>
+      </c>
+      <c r="E24" s="17">
+        <v>699709</v>
+      </c>
+      <c r="F24" s="17">
+        <v>279595</v>
+      </c>
+      <c r="G24" s="17">
+        <v>653415</v>
+      </c>
+      <c r="H24" s="17">
+        <v>1045185</v>
+      </c>
+      <c r="I24" s="17">
+        <v>1513258</v>
+      </c>
+      <c r="J24" s="17">
+        <v>725008</v>
+      </c>
+      <c r="K24" s="17">
+        <v>1448498</v>
+      </c>
+      <c r="L24" s="17">
         <v>2593772</v>
       </c>
-      <c r="E24" s="17">
+      <c r="M24" s="17">
         <v>3363485</v>
       </c>
-      <c r="F24" s="17">
+      <c r="N24" s="17">
         <v>1300575</v>
       </c>
-      <c r="G24" s="17">
+      <c r="O24" s="17">
         <v>2254431</v>
       </c>
-      <c r="H24" s="17">
+      <c r="P24" s="17">
         <v>4075333</v>
       </c>
-      <c r="I24" s="17">
+      <c r="Q24" s="17">
         <v>5106666</v>
       </c>
-      <c r="J24" s="17">
+      <c r="R24" s="17">
         <v>1694884</v>
       </c>
-      <c r="K24" s="17">
+      <c r="S24" s="17">
         <v>4061849</v>
       </c>
-      <c r="L24" s="17">
+      <c r="T24" s="17">
         <v>7137736</v>
       </c>
-      <c r="M24" s="17">
+      <c r="U24" s="17">
         <v>10294678</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V24" s="17">
+        <v>4069894</v>
+      </c>
+      <c r="W24" s="17">
+        <v>8336242</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>928</v>
+      </c>
+      <c r="E25" s="13">
+        <v>1076</v>
+      </c>
+      <c r="F25" s="13">
+        <v>430</v>
+      </c>
+      <c r="G25" s="13">
+        <v>1005</v>
+      </c>
+      <c r="H25" s="13">
+        <v>1608</v>
+      </c>
+      <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="J25" s="13">
+        <v>1115</v>
+      </c>
+      <c r="K25" s="13">
+        <v>2228</v>
+      </c>
+      <c r="L25" s="13">
         <v>3990</v>
       </c>
-      <c r="E25" s="13">
+      <c r="M25" s="13">
         <v>5175</v>
       </c>
-      <c r="F25" s="13">
+      <c r="N25" s="13">
         <v>2001</v>
       </c>
-      <c r="G25" s="13">
+      <c r="O25" s="13">
         <v>3468</v>
       </c>
-      <c r="H25" s="13">
+      <c r="P25" s="13">
         <v>6270</v>
       </c>
-      <c r="I25" s="13">
+      <c r="Q25" s="13">
         <v>7856</v>
       </c>
-      <c r="J25" s="13">
+      <c r="R25" s="13">
         <v>2608</v>
       </c>
-      <c r="K25" s="13">
+      <c r="S25" s="13">
         <v>6249</v>
       </c>
-      <c r="L25" s="13">
+      <c r="T25" s="13">
         <v>10981</v>
       </c>
-      <c r="M25" s="13">
+      <c r="U25" s="13">
         <v>15838</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V25" s="13">
+        <v>6261</v>
+      </c>
+      <c r="W25" s="13">
+        <v>12825</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
@@ -1398,44 +2053,104 @@
       <c r="M26" s="11">
         <v>650000</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N26" s="11">
+        <v>650000</v>
+      </c>
+      <c r="O26" s="11">
+        <v>650000</v>
+      </c>
+      <c r="P26" s="11">
+        <v>650000</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>650000</v>
+      </c>
+      <c r="R26" s="11">
+        <v>650000</v>
+      </c>
+      <c r="S26" s="11">
+        <v>650000</v>
+      </c>
+      <c r="T26" s="11">
+        <v>650000</v>
+      </c>
+      <c r="U26" s="11">
+        <v>650000</v>
+      </c>
+      <c r="V26" s="11">
+        <v>650000</v>
+      </c>
+      <c r="W26" s="11">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>928</v>
+      </c>
+      <c r="E27" s="13">
+        <v>1076</v>
+      </c>
+      <c r="F27" s="13">
+        <v>430</v>
+      </c>
+      <c r="G27" s="13">
+        <v>1005</v>
+      </c>
+      <c r="H27" s="13">
+        <v>1608</v>
+      </c>
+      <c r="I27" s="13">
+        <v>2328</v>
+      </c>
+      <c r="J27" s="13">
+        <v>1115</v>
+      </c>
+      <c r="K27" s="13">
+        <v>2228</v>
+      </c>
+      <c r="L27" s="13">
         <v>3990</v>
       </c>
-      <c r="E27" s="13">
+      <c r="M27" s="13">
         <v>5175</v>
       </c>
-      <c r="F27" s="13">
+      <c r="N27" s="13">
         <v>2001</v>
       </c>
-      <c r="G27" s="13">
+      <c r="O27" s="13">
         <v>3468</v>
       </c>
-      <c r="H27" s="13">
+      <c r="P27" s="13">
         <v>6270</v>
       </c>
-      <c r="I27" s="13">
+      <c r="Q27" s="13">
         <v>7856</v>
       </c>
-      <c r="J27" s="13">
+      <c r="R27" s="13">
         <v>2608</v>
       </c>
-      <c r="K27" s="13">
+      <c r="S27" s="13">
         <v>6249</v>
       </c>
-      <c r="L27" s="13">
+      <c r="T27" s="13">
         <v>10981</v>
       </c>
-      <c r="M27" s="13">
+      <c r="U27" s="13">
         <v>15838</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V27" s="13">
+        <v>6261</v>
+      </c>
+      <c r="W27" s="13">
+        <v>12825</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1448,6 +2163,16 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
